--- a/Code/Results/Cases/Case_2_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19454122140524</v>
+        <v>10.33322002669045</v>
       </c>
       <c r="C2">
-        <v>7.733322494705708</v>
+        <v>10.31536733583054</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.000857808361637</v>
+        <v>13.17156600385459</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>18.68386282634472</v>
+        <v>29.14563638212093</v>
       </c>
       <c r="H2">
-        <v>8.63635498556596</v>
+        <v>14.60368440303813</v>
       </c>
       <c r="I2">
-        <v>14.09920333528622</v>
+        <v>23.28980196499089</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.27876308797607</v>
+        <v>8.227631653585041</v>
       </c>
       <c r="L2">
-        <v>6.311053020878979</v>
+        <v>10.08628627823765</v>
       </c>
       <c r="M2">
-        <v>9.341903897899206</v>
+        <v>13.12235221975785</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.45162684519282</v>
+        <v>22.23766179459682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.35300569849649</v>
+        <v>10.03282669529225</v>
       </c>
       <c r="C3">
-        <v>7.725233270532937</v>
+        <v>10.3210992370767</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.032109177521441</v>
+        <v>13.20981206226183</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>19.03389106898006</v>
+        <v>29.33528034154951</v>
       </c>
       <c r="H3">
-        <v>8.775198449252668</v>
+        <v>14.66023726358485</v>
       </c>
       <c r="I3">
-        <v>14.39515246717872</v>
+        <v>23.40507136631799</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.73843104780137</v>
+        <v>7.975274944797491</v>
       </c>
       <c r="L3">
-        <v>6.232453622203384</v>
+        <v>10.09390744815338</v>
       </c>
       <c r="M3">
-        <v>8.985883324815616</v>
+        <v>13.07050177487505</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.69883081770849</v>
+        <v>22.34685618342634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80579318753847</v>
+        <v>9.844452854666368</v>
       </c>
       <c r="C4">
-        <v>7.721740781494788</v>
+        <v>10.32534089339875</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.05568684470288</v>
+        <v>13.23528247850011</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>19.27068220201208</v>
+        <v>29.45985259441859</v>
       </c>
       <c r="H4">
-        <v>8.864352871636196</v>
+        <v>14.69696806203102</v>
       </c>
       <c r="I4">
-        <v>14.5845093277508</v>
+        <v>23.47980731676896</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.39175144453263</v>
+        <v>7.815000066004924</v>
       </c>
       <c r="L4">
-        <v>6.18637686354659</v>
+        <v>10.09993520498955</v>
       </c>
       <c r="M4">
-        <v>8.762229037161935</v>
+        <v>13.03998707151919</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.85962872698551</v>
+        <v>22.41801273578925</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.57512602527371</v>
+        <v>9.766808819655134</v>
       </c>
       <c r="C5">
-        <v>7.720686142866187</v>
+        <v>10.32725169207047</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.066373399432281</v>
+        <v>13.24616187092072</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>19.3723956825009</v>
+        <v>29.51265783852939</v>
       </c>
       <c r="H5">
-        <v>8.90165451273271</v>
+        <v>14.71244176331161</v>
       </c>
       <c r="I5">
-        <v>14.66357502976161</v>
+        <v>23.51126036520496</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.24683098731983</v>
+        <v>7.748412626255415</v>
       </c>
       <c r="L5">
-        <v>6.168160894000958</v>
+        <v>10.10273125017459</v>
       </c>
       <c r="M5">
-        <v>8.669945536752911</v>
+        <v>13.02789249315381</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.92735837508779</v>
+        <v>22.44804412707721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.53636053388012</v>
+        <v>9.753866243306057</v>
       </c>
       <c r="C6">
-        <v>7.720533218391602</v>
+        <v>10.32758000812639</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.068212295865646</v>
+        <v>13.24799859257219</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>19.3895925555769</v>
+        <v>29.52154928759261</v>
       </c>
       <c r="H6">
-        <v>8.907906737943179</v>
+        <v>14.71504172336685</v>
       </c>
       <c r="I6">
-        <v>14.67681812297388</v>
+        <v>23.5165434209114</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.2225503012735</v>
+        <v>7.737280906521185</v>
       </c>
       <c r="L6">
-        <v>6.165170324274813</v>
+        <v>10.10321606485037</v>
       </c>
       <c r="M6">
-        <v>8.654556961722065</v>
+        <v>13.02590498669813</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.93873616759057</v>
+        <v>22.45309332437139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.802713397536</v>
+        <v>9.843409135021416</v>
       </c>
       <c r="C7">
-        <v>7.72172506877388</v>
+        <v>10.32536592412542</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.05582663384981</v>
+        <v>13.23542717694868</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>19.2720331686251</v>
+        <v>29.46055648463072</v>
       </c>
       <c r="H7">
-        <v>8.86485201881281</v>
+        <v>14.69717469741093</v>
       </c>
       <c r="I7">
-        <v>14.58556796203787</v>
+        <v>23.48022746222465</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.38981160564108</v>
+        <v>7.814107112633764</v>
       </c>
       <c r="L7">
-        <v>6.186128912011006</v>
+        <v>10.09997153726243</v>
       </c>
       <c r="M7">
-        <v>8.760988915317123</v>
+        <v>13.03982257108938</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.8605333110876</v>
+        <v>22.41841355976832</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91070738829017</v>
+        <v>10.23052292034961</v>
       </c>
       <c r="C8">
-        <v>7.730226044209779</v>
+        <v>10.31719419978901</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.010707070215235</v>
+        <v>13.18434098777264</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>18.79983723420978</v>
+        <v>29.20933618734731</v>
       </c>
       <c r="H8">
-        <v>8.683410743718781</v>
+        <v>14.62276779339808</v>
       </c>
       <c r="I8">
-        <v>14.19964680558957</v>
+        <v>23.32872599462207</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.09560869145125</v>
+        <v>8.141761998982458</v>
       </c>
       <c r="L8">
-        <v>6.283506065004095</v>
+        <v>10.08863461246852</v>
       </c>
       <c r="M8">
-        <v>9.220270442348784</v>
+        <v>13.10420480458766</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.53495183974082</v>
+        <v>22.27445933183361</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.84193059492261</v>
+        <v>10.95409679206852</v>
       </c>
       <c r="C9">
-        <v>7.758692635550414</v>
+        <v>10.30687069590614</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.958191009141292</v>
+        <v>13.09991498607624</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.06115547872116</v>
+        <v>28.781354362782</v>
       </c>
       <c r="H9">
-        <v>8.359164511348233</v>
+        <v>14.49274058274427</v>
       </c>
       <c r="I9">
-        <v>13.50462195791133</v>
+        <v>23.06297324753785</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.35768073968458</v>
+        <v>8.739457238025599</v>
       </c>
       <c r="L9">
-        <v>6.491228035428002</v>
+        <v>10.0770715140107</v>
       </c>
       <c r="M9">
-        <v>10.07584448712267</v>
+        <v>13.24057810088145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.97120922935393</v>
+        <v>22.02474438669891</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.11467271127608</v>
+        <v>11.45874993441797</v>
       </c>
       <c r="C10">
-        <v>7.786936212778992</v>
+        <v>10.30272226187399</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.943096825768929</v>
+        <v>13.04747227879457</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>17.65327297190624</v>
+        <v>28.5065466784079</v>
       </c>
       <c r="H10">
-        <v>8.141128393799525</v>
+        <v>14.40683567768794</v>
       </c>
       <c r="I10">
-        <v>13.03355211070792</v>
+        <v>22.8867183644111</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.20676916510671</v>
+        <v>9.148215421532852</v>
       </c>
       <c r="L10">
-        <v>6.653260857640257</v>
+        <v>10.07503722478731</v>
       </c>
       <c r="M10">
-        <v>10.67126880459051</v>
+        <v>13.34643188105195</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.60760757727384</v>
+        <v>21.86108644826114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.66227776146612</v>
+        <v>11.68151796710968</v>
       </c>
       <c r="C11">
-        <v>7.801405967998833</v>
+        <v>10.30157262954614</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.941667156239363</v>
+        <v>13.02569186532505</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>17.50196214938389</v>
+        <v>28.39018331669142</v>
       </c>
       <c r="H11">
-        <v>8.046579904939053</v>
+        <v>14.3698334951215</v>
       </c>
       <c r="I11">
-        <v>12.82839184987123</v>
+        <v>22.81063625668751</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.57553828386473</v>
+        <v>9.327041524159299</v>
       </c>
       <c r="L11">
-        <v>6.728838604389482</v>
+        <v>10.07550423834301</v>
       </c>
       <c r="M11">
-        <v>10.98194646111821</v>
+        <v>13.39570257448745</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.45447834895364</v>
+        <v>21.79092474893183</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.86516058246925</v>
+        <v>11.76482676265953</v>
       </c>
       <c r="C12">
-        <v>7.807120778544004</v>
+        <v>10.30124260104744</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.941935126814377</v>
+        <v>13.01774239103026</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>17.45003193978338</v>
+        <v>28.347367576779</v>
       </c>
       <c r="H12">
-        <v>8.011469799103656</v>
+        <v>14.35611945392551</v>
       </c>
       <c r="I12">
-        <v>12.75207416330238</v>
+        <v>22.78241345208311</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.71263641362211</v>
+        <v>9.393696344168548</v>
       </c>
       <c r="L12">
-        <v>6.757711066772034</v>
+        <v>10.07588028192981</v>
       </c>
       <c r="M12">
-        <v>11.1055616605383</v>
+        <v>13.41451072486552</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.39838238921975</v>
+        <v>21.7649722166802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.82166506100279</v>
+        <v>11.74693240858431</v>
       </c>
       <c r="C13">
-        <v>7.805879485201479</v>
+        <v>10.30130900672666</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.941840980601632</v>
+        <v>13.019441189677</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>17.46096998179477</v>
+        <v>28.35653310268737</v>
       </c>
       <c r="H13">
-        <v>8.019000088280318</v>
+        <v>14.35905978063649</v>
       </c>
       <c r="I13">
-        <v>12.76844847115503</v>
+        <v>22.78846561437482</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.68322356406905</v>
+        <v>9.379388873443776</v>
       </c>
       <c r="L13">
-        <v>6.751481871535845</v>
+        <v>10.07579045221016</v>
       </c>
       <c r="M13">
-        <v>11.0790499863916</v>
+        <v>13.41045352913693</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.41037741345601</v>
+        <v>21.7705341583188</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.67905873636563</v>
+        <v>11.68839322667463</v>
       </c>
       <c r="C14">
-        <v>7.801871397658748</v>
+        <v>10.3015433715746</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.941672824174669</v>
+        <v>13.02503188040025</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>17.49757961178254</v>
+        <v>28.3866357884436</v>
       </c>
       <c r="H14">
-        <v>8.043677314044192</v>
+        <v>14.36869926663999</v>
       </c>
       <c r="I14">
-        <v>12.82208527562436</v>
+        <v>22.80830257583709</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.58686862289082</v>
+        <v>9.3325467620691</v>
       </c>
       <c r="L14">
-        <v>6.731208982554225</v>
+        <v>10.07553118968978</v>
       </c>
       <c r="M14">
-        <v>10.9921664136658</v>
+        <v>13.39724697739072</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.44982463683137</v>
+        <v>21.78877727085408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59112525782739</v>
+        <v>11.6523977533327</v>
       </c>
       <c r="C15">
-        <v>7.799447054865628</v>
+        <v>10.30170061938392</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.941676041616547</v>
+        <v>13.02849517956272</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>17.52071671193878</v>
+        <v>28.40523729925003</v>
       </c>
       <c r="H15">
-        <v>8.058883974607257</v>
+        <v>14.37464250274764</v>
       </c>
       <c r="I15">
-        <v>12.8551199728082</v>
+        <v>22.82052980288337</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.52751597496641</v>
+        <v>9.303715138434882</v>
       </c>
       <c r="L15">
-        <v>6.71882370924043</v>
+        <v>10.07539829308578</v>
       </c>
       <c r="M15">
-        <v>10.93862243171661</v>
+        <v>13.38917686287722</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.47423740278551</v>
+        <v>21.80003194085802</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.07825647436361</v>
+        <v>11.44404845895978</v>
       </c>
       <c r="C16">
-        <v>7.786023402567905</v>
+        <v>10.30281217060945</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.943302017156487</v>
+        <v>13.04893743532983</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>17.66388791202797</v>
+        <v>28.51432573914338</v>
       </c>
       <c r="H16">
-        <v>8.147402855593548</v>
+        <v>14.4092955793627</v>
       </c>
       <c r="I16">
-        <v>13.04714837741259</v>
+        <v>22.89177283962167</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.18231440744403</v>
+        <v>9.136382013262359</v>
       </c>
       <c r="L16">
-        <v>6.64835791002398</v>
+        <v>10.07503463692604</v>
       </c>
       <c r="M16">
-        <v>10.65392964157962</v>
+        <v>13.34323353593859</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.61787235659152</v>
+        <v>21.86575792113124</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.75561198068306</v>
+        <v>11.31443839289</v>
       </c>
       <c r="C17">
-        <v>7.77820535160222</v>
+        <v>10.30368244234558</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.945711617204553</v>
+        <v>13.06200965612716</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>17.76079669566587</v>
+        <v>28.58346641626823</v>
       </c>
       <c r="H17">
-        <v>8.202911741875248</v>
+        <v>14.4310854289417</v>
       </c>
       <c r="I17">
-        <v>13.16732923700788</v>
+        <v>22.93652655196216</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.96603998536663</v>
+        <v>9.031875819121913</v>
       </c>
       <c r="L17">
-        <v>6.605596610140324</v>
+        <v>10.07516746810694</v>
       </c>
       <c r="M17">
-        <v>10.50105450665758</v>
+        <v>13.3153277249505</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.70921667189136</v>
+        <v>21.90717648404797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.56708068571079</v>
+        <v>11.23925369433529</v>
       </c>
       <c r="C18">
-        <v>7.773861114762977</v>
+        <v>10.30425246276607</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.947607643969562</v>
+        <v>13.06972387314139</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>17.81973045369643</v>
+        <v>28.62404799261193</v>
       </c>
       <c r="H18">
-        <v>8.235273661820042</v>
+        <v>14.44381385444852</v>
       </c>
       <c r="I18">
-        <v>13.23730951818293</v>
+        <v>22.96265342064629</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.84000014030769</v>
+        <v>8.971098470981262</v>
       </c>
       <c r="L18">
-        <v>6.58117823311635</v>
+        <v>10.07537499715041</v>
       </c>
       <c r="M18">
-        <v>10.4123619844439</v>
+        <v>13.29938283170564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.76290254565191</v>
+        <v>21.93140288461846</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5027389497767</v>
+        <v>11.21369041344482</v>
       </c>
       <c r="C19">
-        <v>7.772416354591686</v>
+        <v>10.30445741461612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.948336373100656</v>
+        <v>13.07236934525925</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>17.84021988276177</v>
+        <v>28.63792781991889</v>
       </c>
       <c r="H19">
-        <v>8.246304759994343</v>
+        <v>14.44815707618283</v>
       </c>
       <c r="I19">
-        <v>13.26114892735729</v>
+        <v>22.97156581773344</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.79704390518711</v>
+        <v>8.95040680978425</v>
       </c>
       <c r="L19">
-        <v>6.572941439097026</v>
+        <v>10.07546781448466</v>
       </c>
       <c r="M19">
-        <v>10.38220336654468</v>
+        <v>13.29400264360562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.78127306446554</v>
+        <v>21.93967484577119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.79026364639441</v>
+        <v>11.32830200698474</v>
       </c>
       <c r="C20">
-        <v>7.779021797182541</v>
+        <v>10.30358261659101</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.945402119029294</v>
+        <v>13.06059787220464</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>17.75014683513559</v>
+        <v>28.57602202407085</v>
       </c>
       <c r="H20">
-        <v>8.196957558512718</v>
+        <v>14.42874563589955</v>
       </c>
       <c r="I20">
-        <v>13.15444685104337</v>
+        <v>22.93172253233297</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.98923323158087</v>
+        <v>9.0430701289271</v>
       </c>
       <c r="L20">
-        <v>6.610130441480377</v>
+        <v>10.07513976397682</v>
       </c>
       <c r="M20">
-        <v>10.51740777603539</v>
+        <v>13.31828747081446</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.69937333395802</v>
+        <v>21.90272564492826</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.72106711112581</v>
+        <v>11.70561658976062</v>
       </c>
       <c r="C21">
-        <v>7.80304226271146</v>
+        <v>10.30147168075836</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.941700031020171</v>
+        <v>13.023381665304</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>17.48667713704161</v>
+        <v>28.37775997463276</v>
       </c>
       <c r="H21">
-        <v>8.036409966902685</v>
+        <v>14.36585983698719</v>
       </c>
       <c r="I21">
-        <v>12.80629308801948</v>
+        <v>22.80246003596986</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.61523973522565</v>
+        <v>9.3463345558598</v>
       </c>
       <c r="L21">
-        <v>6.737156885496158</v>
+        <v>10.07560194388082</v>
       </c>
       <c r="M21">
-        <v>11.01775400874413</v>
+        <v>13.40112206246215</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.43818564477961</v>
+        <v>21.78340210567103</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.30328352187643</v>
+        <v>11.94607355196682</v>
       </c>
       <c r="C22">
-        <v>7.820114338715621</v>
+        <v>10.30070555041318</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.944010744478414</v>
+        <v>13.00079729884418</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>17.34599421902911</v>
+        <v>28.25546411804202</v>
       </c>
       <c r="H22">
-        <v>7.935539358264425</v>
+        <v>14.32649630587088</v>
       </c>
       <c r="I22">
-        <v>12.58678688622046</v>
+        <v>22.72140531036894</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.00951801710135</v>
+        <v>9.53832596543411</v>
       </c>
       <c r="L22">
-        <v>6.821642429001456</v>
+        <v>10.07706453588847</v>
       </c>
       <c r="M22">
-        <v>11.37291079759497</v>
+        <v>13.45613105745606</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.27857383614534</v>
+        <v>21.70900874320163</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.99492351049666</v>
+        <v>11.81832043306158</v>
       </c>
       <c r="C23">
-        <v>7.810876245761206</v>
+        <v>10.30105856235466</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.942335580900821</v>
+        <v>13.01269200178153</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>17.41804364318228</v>
+        <v>28.32006793271338</v>
       </c>
       <c r="H23">
-        <v>7.988994951972561</v>
+        <v>14.34734674819278</v>
       </c>
       <c r="I23">
-        <v>12.70318428114775</v>
+        <v>22.76435270914133</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.80045173931942</v>
+        <v>9.436436401634923</v>
       </c>
       <c r="L23">
-        <v>6.77642189505008</v>
+        <v>10.07617809573267</v>
       </c>
       <c r="M23">
-        <v>11.18468808288238</v>
+        <v>13.42669539017128</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.36270171825552</v>
+        <v>21.74838534766764</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.7746070952106</v>
+        <v>11.32203634896872</v>
       </c>
       <c r="C24">
-        <v>7.778652213640233</v>
+        <v>10.30362753068985</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.945540454477778</v>
+        <v>13.06123552039328</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>17.7549516421474</v>
+        <v>28.57938504354707</v>
       </c>
       <c r="H24">
-        <v>8.199648047854739</v>
+        <v>14.42980282971146</v>
       </c>
       <c r="I24">
-        <v>13.16026822017348</v>
+        <v>22.9338931917531</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.97875286002549</v>
+        <v>9.03801134432916</v>
       </c>
       <c r="L24">
-        <v>6.608080179120668</v>
+        <v>10.07515188038362</v>
       </c>
       <c r="M24">
-        <v>10.51001695772819</v>
+        <v>13.31694906202624</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.70381986955226</v>
+        <v>21.90473657870628</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.34524471158695</v>
+        <v>10.76273359063799</v>
       </c>
       <c r="C25">
-        <v>7.749714461603646</v>
+        <v>10.30905714351201</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.968386570817295</v>
+        <v>13.12106981171672</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.23890476417169</v>
+        <v>28.89019111542679</v>
       </c>
       <c r="H25">
-        <v>8.443414243292583</v>
+        <v>14.52622185453523</v>
       </c>
       <c r="I25">
-        <v>13.68585766112023</v>
+        <v>23.13152292330444</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.02976205220567</v>
+        <v>8.582899502895765</v>
       </c>
       <c r="L25">
-        <v>6.433319012363651</v>
+        <v>10.07906161466627</v>
       </c>
       <c r="M25">
-        <v>9.849851643818781</v>
+        <v>13.20265350156913</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.115235031004</v>
+        <v>22.08881679889081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.33322002669045</v>
+        <v>13.19454122140531</v>
       </c>
       <c r="C2">
-        <v>10.31536733583054</v>
+        <v>7.733322494705316</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.17156600385459</v>
+        <v>8.000857808361529</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>29.14563638212093</v>
+        <v>18.68386282634449</v>
       </c>
       <c r="H2">
-        <v>14.60368440303813</v>
+        <v>8.636354985565891</v>
       </c>
       <c r="I2">
-        <v>23.28980196499089</v>
+        <v>14.099203335286</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.227631653585041</v>
+        <v>11.27876308797605</v>
       </c>
       <c r="L2">
-        <v>10.08628627823765</v>
+        <v>6.311053020878933</v>
       </c>
       <c r="M2">
-        <v>13.12235221975785</v>
+        <v>9.341903897899179</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.23766179459682</v>
+        <v>13.4516268451927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.03282669529225</v>
+        <v>12.35300569849646</v>
       </c>
       <c r="C3">
-        <v>10.3210992370767</v>
+        <v>7.725233270533055</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.20981206226183</v>
+        <v>8.032109177521516</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>29.33528034154951</v>
+        <v>19.0338910689799</v>
       </c>
       <c r="H3">
-        <v>14.66023726358485</v>
+        <v>8.775198449252676</v>
       </c>
       <c r="I3">
-        <v>23.40507136631799</v>
+        <v>14.39515246717865</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.975274944797491</v>
+        <v>10.73843104780136</v>
       </c>
       <c r="L3">
-        <v>10.09390744815338</v>
+        <v>6.232453622203433</v>
       </c>
       <c r="M3">
-        <v>13.07050177487505</v>
+        <v>8.985883324815612</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.34685618342634</v>
+        <v>13.69883081770839</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.844452854666368</v>
+        <v>11.80579318753849</v>
       </c>
       <c r="C4">
-        <v>10.32534089339875</v>
+        <v>7.721740781494773</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.23528247850011</v>
+        <v>8.055686844702825</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>29.45985259441859</v>
+        <v>19.27068220201188</v>
       </c>
       <c r="H4">
-        <v>14.69696806203102</v>
+        <v>8.864352871636063</v>
       </c>
       <c r="I4">
-        <v>23.47980731676896</v>
+        <v>14.58450932775061</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.815000066004924</v>
+        <v>10.39175144453267</v>
       </c>
       <c r="L4">
-        <v>10.09993520498955</v>
+        <v>6.186376863546541</v>
       </c>
       <c r="M4">
-        <v>13.03998707151919</v>
+        <v>8.762229037161905</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.41801273578925</v>
+        <v>13.85962872698529</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.766808819655134</v>
+        <v>11.5751260252737</v>
       </c>
       <c r="C5">
-        <v>10.32725169207047</v>
+        <v>7.720686142866176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.24616187092072</v>
+        <v>8.066373399432157</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>29.51265783852939</v>
+        <v>19.37239568250081</v>
       </c>
       <c r="H5">
-        <v>14.71244176331161</v>
+        <v>8.90165451273271</v>
       </c>
       <c r="I5">
-        <v>23.51126036520496</v>
+        <v>14.66357502976158</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.748412626255415</v>
+        <v>10.24683098731983</v>
       </c>
       <c r="L5">
-        <v>10.10273125017459</v>
+        <v>6.168160894000843</v>
       </c>
       <c r="M5">
-        <v>13.02789249315381</v>
+        <v>8.669945536752866</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.44804412707721</v>
+        <v>13.92735837508773</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.753866243306057</v>
+        <v>11.53636053388017</v>
       </c>
       <c r="C6">
-        <v>10.32758000812639</v>
+        <v>7.720533218391464</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.24799859257219</v>
+        <v>8.068212295865589</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>29.52154928759261</v>
+        <v>19.38959255557678</v>
       </c>
       <c r="H6">
-        <v>14.71504172336685</v>
+        <v>8.907906737943119</v>
       </c>
       <c r="I6">
-        <v>23.5165434209114</v>
+        <v>14.67681812297376</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.737280906521185</v>
+        <v>10.22255030127349</v>
       </c>
       <c r="L6">
-        <v>10.10321606485037</v>
+        <v>6.165170324274812</v>
       </c>
       <c r="M6">
-        <v>13.02590498669813</v>
+        <v>8.654556961722044</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.45309332437139</v>
+        <v>13.93873616759048</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.843409135021416</v>
+        <v>11.802713397536</v>
       </c>
       <c r="C7">
-        <v>10.32536592412542</v>
+        <v>7.72172506877387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.23542717694868</v>
+        <v>8.055826633849811</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.46055648463072</v>
+        <v>19.27203316862491</v>
       </c>
       <c r="H7">
-        <v>14.69717469741093</v>
+        <v>8.864852018812817</v>
       </c>
       <c r="I7">
-        <v>23.48022746222465</v>
+        <v>14.58556796203778</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.814107112633764</v>
+        <v>10.38981160564109</v>
       </c>
       <c r="L7">
-        <v>10.09997153726243</v>
+        <v>6.186128912011013</v>
       </c>
       <c r="M7">
-        <v>13.03982257108938</v>
+        <v>8.760988915317119</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.41841355976832</v>
+        <v>13.86053331108753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.23052292034961</v>
+        <v>12.9107073882902</v>
       </c>
       <c r="C8">
-        <v>10.31719419978901</v>
+        <v>7.730226044209767</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.18434098777264</v>
+        <v>8.010707070215293</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>29.20933618734731</v>
+        <v>18.79983723420944</v>
       </c>
       <c r="H8">
-        <v>14.62276779339808</v>
+        <v>8.683410743718721</v>
       </c>
       <c r="I8">
-        <v>23.32872599462207</v>
+        <v>14.19964680558945</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.141761998982458</v>
+        <v>11.09560869145127</v>
       </c>
       <c r="L8">
-        <v>10.08863461246852</v>
+        <v>6.283506065004121</v>
       </c>
       <c r="M8">
-        <v>13.10420480458766</v>
+        <v>9.22027044234879</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.27445933183361</v>
+        <v>13.53495183974067</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.95409679206852</v>
+        <v>14.84193059492262</v>
       </c>
       <c r="C9">
-        <v>10.30687069590614</v>
+        <v>7.758692635550275</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.09991498607624</v>
+        <v>7.958191009141354</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>28.781354362782</v>
+        <v>18.06115547872114</v>
       </c>
       <c r="H9">
-        <v>14.49274058274427</v>
+        <v>8.359164511348171</v>
       </c>
       <c r="I9">
-        <v>23.06297324753785</v>
+        <v>13.50462195791131</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.739457238025599</v>
+        <v>12.35768073968458</v>
       </c>
       <c r="L9">
-        <v>10.0770715140107</v>
+        <v>6.491228035428048</v>
       </c>
       <c r="M9">
-        <v>13.24057810088145</v>
+        <v>10.07584448712269</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.02474438669891</v>
+        <v>12.9712092293539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.45874993441797</v>
+        <v>16.11467271127608</v>
       </c>
       <c r="C10">
-        <v>10.30272226187399</v>
+        <v>7.786936212779224</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.04747227879457</v>
+        <v>7.943096825768936</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>28.5065466784079</v>
+        <v>17.65327297190642</v>
       </c>
       <c r="H10">
-        <v>14.40683567768794</v>
+        <v>8.141128393799599</v>
       </c>
       <c r="I10">
-        <v>22.8867183644111</v>
+        <v>13.03355211070807</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.148215421532852</v>
+        <v>13.20676916510672</v>
       </c>
       <c r="L10">
-        <v>10.07503722478731</v>
+        <v>6.65326085764022</v>
       </c>
       <c r="M10">
-        <v>13.34643188105195</v>
+        <v>10.6712688045905</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.86108644826114</v>
+        <v>12.60760757727392</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.68151796710968</v>
+        <v>16.66227776146613</v>
       </c>
       <c r="C11">
-        <v>10.30157262954614</v>
+        <v>7.801405967998935</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.02569186532505</v>
+        <v>7.941667156239363</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>28.39018331669142</v>
+        <v>17.5019621493837</v>
       </c>
       <c r="H11">
-        <v>14.3698334951215</v>
+        <v>8.046579904938932</v>
       </c>
       <c r="I11">
-        <v>22.81063625668751</v>
+        <v>12.8283918498712</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.327041524159299</v>
+        <v>13.57553828386475</v>
       </c>
       <c r="L11">
-        <v>10.07550423834301</v>
+        <v>6.728838604389482</v>
       </c>
       <c r="M11">
-        <v>13.39570257448745</v>
+        <v>10.98194646111821</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.79092474893183</v>
+        <v>12.45447834895352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.76482676265953</v>
+        <v>16.86516058246934</v>
       </c>
       <c r="C12">
-        <v>10.30124260104744</v>
+        <v>7.807120778543876</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.01774239103026</v>
+        <v>7.941935126814384</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>28.347367576779</v>
+        <v>17.45003193978325</v>
       </c>
       <c r="H12">
-        <v>14.35611945392551</v>
+        <v>8.011469799103473</v>
       </c>
       <c r="I12">
-        <v>22.78241345208311</v>
+        <v>12.75207416330219</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.393696344168548</v>
+        <v>13.71263641362214</v>
       </c>
       <c r="L12">
-        <v>10.07588028192981</v>
+        <v>6.757711066772094</v>
       </c>
       <c r="M12">
-        <v>13.41451072486552</v>
+        <v>11.10556166053832</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.7649722166802</v>
+        <v>12.3983823892196</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.74693240858431</v>
+        <v>16.8216650610028</v>
       </c>
       <c r="C13">
-        <v>10.30130900672666</v>
+        <v>7.805879485201214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.019441189677</v>
+        <v>7.941840980601491</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>28.35653310268737</v>
+        <v>17.46096998179478</v>
       </c>
       <c r="H13">
-        <v>14.35905978063649</v>
+        <v>8.019000088280261</v>
       </c>
       <c r="I13">
-        <v>22.78846561437482</v>
+        <v>12.76844847115489</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.379388873443776</v>
+        <v>13.68322356406901</v>
       </c>
       <c r="L13">
-        <v>10.07579045221016</v>
+        <v>6.751481871535804</v>
       </c>
       <c r="M13">
-        <v>13.41045352913693</v>
+        <v>11.07904998639162</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.7705341583188</v>
+        <v>12.41037741345591</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.68839322667463</v>
+        <v>16.67905873636559</v>
       </c>
       <c r="C14">
-        <v>10.3015433715746</v>
+        <v>7.801871397658733</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.02503188040025</v>
+        <v>7.941672824174669</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>28.3866357884436</v>
+        <v>17.49757961178257</v>
       </c>
       <c r="H14">
-        <v>14.36869926663999</v>
+        <v>8.043677314044315</v>
       </c>
       <c r="I14">
-        <v>22.80830257583709</v>
+        <v>12.82208527562439</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.3325467620691</v>
+        <v>13.5868686228908</v>
       </c>
       <c r="L14">
-        <v>10.07553118968978</v>
+        <v>6.731208982554201</v>
       </c>
       <c r="M14">
-        <v>13.39724697739072</v>
+        <v>10.99216641366578</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.78877727085408</v>
+        <v>12.44982463683143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.6523977533327</v>
+        <v>16.59112525782738</v>
       </c>
       <c r="C15">
-        <v>10.30170061938392</v>
+        <v>7.799447054865627</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.02849517956272</v>
+        <v>7.941676041616599</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>28.40523729925003</v>
+        <v>17.52071671193842</v>
       </c>
       <c r="H15">
-        <v>14.37464250274764</v>
+        <v>8.058883974607197</v>
       </c>
       <c r="I15">
-        <v>22.82052980288337</v>
+        <v>12.85511997280808</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.303715138434882</v>
+        <v>13.52751597496643</v>
       </c>
       <c r="L15">
-        <v>10.07539829308578</v>
+        <v>6.718823709240401</v>
       </c>
       <c r="M15">
-        <v>13.38917686287722</v>
+        <v>10.93862243171661</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.80003194085802</v>
+        <v>12.47423740278535</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.44404845895978</v>
+        <v>16.07825647436357</v>
       </c>
       <c r="C16">
-        <v>10.30281217060945</v>
+        <v>7.786023402568029</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.04893743532983</v>
+        <v>7.943302017156592</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>28.51432573914338</v>
+        <v>17.66388791202785</v>
       </c>
       <c r="H16">
-        <v>14.4092955793627</v>
+        <v>8.14740285559354</v>
       </c>
       <c r="I16">
-        <v>22.89177283962167</v>
+        <v>13.04714837741261</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.136382013262359</v>
+        <v>13.18231440744402</v>
       </c>
       <c r="L16">
-        <v>10.07503463692604</v>
+        <v>6.648357910024023</v>
       </c>
       <c r="M16">
-        <v>13.34323353593859</v>
+        <v>10.65392964157964</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.86575792113124</v>
+        <v>12.6178723565915</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.31443839289</v>
+        <v>15.75561198068312</v>
       </c>
       <c r="C17">
-        <v>10.30368244234558</v>
+        <v>7.778205351601946</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.06200965612716</v>
+        <v>7.945711617204462</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>28.58346641626823</v>
+        <v>17.76079669566563</v>
       </c>
       <c r="H17">
-        <v>14.4310854289417</v>
+        <v>8.202911741875136</v>
       </c>
       <c r="I17">
-        <v>22.93652655196216</v>
+        <v>13.16732923700769</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.031875819121913</v>
+        <v>12.96603998536668</v>
       </c>
       <c r="L17">
-        <v>10.07516746810694</v>
+        <v>6.605596610140335</v>
       </c>
       <c r="M17">
-        <v>13.3153277249505</v>
+        <v>10.50105450665754</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.90717648404797</v>
+        <v>12.70921667189118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.23925369433529</v>
+        <v>15.56708068571078</v>
       </c>
       <c r="C18">
-        <v>10.30425246276607</v>
+        <v>7.773861114763207</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.06972387314139</v>
+        <v>7.947607643969682</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>28.62404799261193</v>
+        <v>17.81973045369626</v>
       </c>
       <c r="H18">
-        <v>14.44381385444852</v>
+        <v>8.235273661820051</v>
       </c>
       <c r="I18">
-        <v>22.96265342064629</v>
+        <v>13.23730951818294</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.971098470981262</v>
+        <v>12.84000014030767</v>
       </c>
       <c r="L18">
-        <v>10.07537499715041</v>
+        <v>6.581178233116377</v>
       </c>
       <c r="M18">
-        <v>13.29938283170564</v>
+        <v>10.41236198444393</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.93140288461846</v>
+        <v>12.76290254565187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.21369041344482</v>
+        <v>15.50273894977673</v>
       </c>
       <c r="C19">
-        <v>10.30445741461612</v>
+        <v>7.772416354591684</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.07236934525925</v>
+        <v>7.948336373100657</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>28.63792781991889</v>
+        <v>17.84021988276149</v>
       </c>
       <c r="H19">
-        <v>14.44815707618283</v>
+        <v>8.246304759994223</v>
       </c>
       <c r="I19">
-        <v>22.97156581773344</v>
+        <v>13.26114892735711</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.95040680978425</v>
+        <v>12.79704390518714</v>
       </c>
       <c r="L19">
-        <v>10.07546781448466</v>
+        <v>6.572941439097047</v>
       </c>
       <c r="M19">
-        <v>13.29400264360562</v>
+        <v>10.38220336654467</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.93967484577119</v>
+        <v>12.78127306446534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.32830200698474</v>
+        <v>15.79026364639442</v>
       </c>
       <c r="C20">
-        <v>10.30358261659101</v>
+        <v>7.779021797182539</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.06059787220464</v>
+        <v>7.945402119029346</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>28.57602202407085</v>
+        <v>17.75014683513565</v>
       </c>
       <c r="H20">
-        <v>14.42874563589955</v>
+        <v>8.19695755851272</v>
       </c>
       <c r="I20">
-        <v>22.93172253233297</v>
+        <v>13.15444685104342</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.0430701289271</v>
+        <v>12.98923323158088</v>
       </c>
       <c r="L20">
-        <v>10.07513976397682</v>
+        <v>6.610130441480415</v>
       </c>
       <c r="M20">
-        <v>13.31828747081446</v>
+        <v>10.51740777603541</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.90272564492826</v>
+        <v>12.69937333395804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.70561658976062</v>
+        <v>16.72106711112583</v>
       </c>
       <c r="C21">
-        <v>10.30147168075836</v>
+        <v>7.803042262711461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.023381665304</v>
+        <v>7.94170003102016</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>28.37775997463276</v>
+        <v>17.48667713704134</v>
       </c>
       <c r="H21">
-        <v>14.36585983698719</v>
+        <v>8.036409966902619</v>
       </c>
       <c r="I21">
-        <v>22.80246003596986</v>
+        <v>12.80629308801935</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.3463345558598</v>
+        <v>13.6152397352257</v>
       </c>
       <c r="L21">
-        <v>10.07560194388082</v>
+        <v>6.737156885496158</v>
       </c>
       <c r="M21">
-        <v>13.40112206246215</v>
+        <v>11.01775400874414</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.78340210567103</v>
+        <v>12.43818564477944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.94607355196682</v>
+        <v>17.30328352187644</v>
       </c>
       <c r="C22">
-        <v>10.30070555041318</v>
+        <v>7.820114338715508</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.00079729884418</v>
+        <v>7.944010744478418</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>28.25546411804202</v>
+        <v>17.34599421902882</v>
       </c>
       <c r="H22">
-        <v>14.32649630587088</v>
+        <v>7.935539358264365</v>
       </c>
       <c r="I22">
-        <v>22.72140531036894</v>
+        <v>12.58678688622031</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.53832596543411</v>
+        <v>14.00951801710135</v>
       </c>
       <c r="L22">
-        <v>10.07706453588847</v>
+        <v>6.821642429001459</v>
       </c>
       <c r="M22">
-        <v>13.45613105745606</v>
+        <v>11.37291079759497</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.70900874320163</v>
+        <v>12.2785738361452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.81832043306158</v>
+        <v>16.99492351049675</v>
       </c>
       <c r="C23">
-        <v>10.30105856235466</v>
+        <v>7.810876245760802</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.01269200178153</v>
+        <v>7.942335580900896</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>28.32006793271338</v>
+        <v>17.41804364318254</v>
       </c>
       <c r="H23">
-        <v>14.34734674819278</v>
+        <v>7.988994951972564</v>
       </c>
       <c r="I23">
-        <v>22.76435270914133</v>
+        <v>12.70318428114772</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.436436401634923</v>
+        <v>13.80045173931944</v>
       </c>
       <c r="L23">
-        <v>10.07617809573267</v>
+        <v>6.776421895050151</v>
       </c>
       <c r="M23">
-        <v>13.42669539017128</v>
+        <v>11.18468808288238</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.74838534766764</v>
+        <v>12.36270171825558</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.32203634896872</v>
+        <v>15.77460709521066</v>
       </c>
       <c r="C24">
-        <v>10.30362753068985</v>
+        <v>7.778652213640075</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.06123552039328</v>
+        <v>7.945540454477785</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>28.57938504354707</v>
+        <v>17.7549516421473</v>
       </c>
       <c r="H24">
-        <v>14.42980282971146</v>
+        <v>8.199648047854561</v>
       </c>
       <c r="I24">
-        <v>22.9338931917531</v>
+        <v>13.1602682201733</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.03801134432916</v>
+        <v>12.97875286002554</v>
       </c>
       <c r="L24">
-        <v>10.07515188038362</v>
+        <v>6.608080179120707</v>
       </c>
       <c r="M24">
-        <v>13.31694906202624</v>
+        <v>10.51001695772818</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.90473657870628</v>
+        <v>12.70381986955212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.76273359063799</v>
+        <v>14.34524471158692</v>
       </c>
       <c r="C25">
-        <v>10.30905714351201</v>
+        <v>7.749714461603771</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.12106981171672</v>
+        <v>7.968386570817411</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>28.89019111542679</v>
+        <v>18.23890476417195</v>
       </c>
       <c r="H25">
-        <v>14.52622185453523</v>
+        <v>8.443414243292713</v>
       </c>
       <c r="I25">
-        <v>23.13152292330444</v>
+        <v>13.6858576611204</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.582899502895765</v>
+        <v>12.02976205220571</v>
       </c>
       <c r="L25">
-        <v>10.07906161466627</v>
+        <v>6.433319012363725</v>
       </c>
       <c r="M25">
-        <v>13.20265350156913</v>
+        <v>9.8498516438188</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.08881679889081</v>
+        <v>13.1152350310041</v>
       </c>
     </row>
   </sheetData>
